--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73569330-0A58-4C12-849B-150DBD218EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2E427-FD0D-48E6-A414-42A87B0EBC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,22 +1348,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>400</v>
       </c>
-      <c r="C2">
-        <v>2600</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>800</v>
-      </c>
-      <c r="G2">
+      <c r="C2" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>700</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1371,22 +1371,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="C3">
-        <v>1300</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>600</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1394,22 +1394,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1300</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2">
+        <v>300</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1417,22 +1417,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>900</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1440,22 +1440,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1000</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>200</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>600</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1463,22 +1463,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>900</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>300</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>8000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>800</v>
-      </c>
-      <c r="F8">
-        <v>3000</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8100</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>700</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2600</v>
+      </c>
+      <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1646,10 +1646,10 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1660,10 +1660,10 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1674,7 +1674,7 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1730,10 +1730,10 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1744,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1758,7 +1758,7 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1772,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1786,7 +1786,7 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>37</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1814,7 +1814,7 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1828,10 +1828,10 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1842,10 +1842,10 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1856,10 +1856,10 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1870,7 +1870,7 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1912,10 +1912,10 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1940,7 +1940,7 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1996,7 +1996,7 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2010,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2038,10 +2038,10 @@
         <v>20</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2052,7 +2052,7 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -2080,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2108,10 +2108,10 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2122,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2164,10 +2164,10 @@
         <v>37</v>
       </c>
       <c r="C42">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2178,7 +2178,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -2192,7 +2192,7 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2206,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2220,10 +2220,10 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2248,10 +2248,10 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2262,10 +2262,10 @@
         <v>75</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2290,7 +2290,7 @@
         <v>78</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>44</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -2346,10 +2346,10 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2374,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2388,7 +2388,7 @@
         <v>44</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>32</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -2419,7 +2419,7 @@
         <v>36</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2430,10 +2430,10 @@
         <v>75</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2458,10 +2458,10 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2486,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -2500,10 +2500,10 @@
         <v>37</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2514,10 +2514,10 @@
         <v>23</v>
       </c>
       <c r="C67">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2528,10 +2528,10 @@
         <v>23</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2542,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>2</v>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2E427-FD0D-48E6-A414-42A87B0EBC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB95CBA-4999-45AE-96A7-449A4A87E709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -515,6 +515,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1307,21 +1311,21 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,14 +1348,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>400</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2700</v>
       </c>
       <c r="D2" s="3">
@@ -1360,22 +1364,22 @@
       <c r="E2" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>700</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>200</v>
       </c>
-      <c r="C3" s="2">
-        <v>1300</v>
+      <c r="C3" s="3">
+        <v>1400</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1383,21 +1387,21 @@
       <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>500</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1300</v>
       </c>
       <c r="D4" s="3">
@@ -1406,67 +1410,67 @@
       <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>300</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>900</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>200</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1000</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
         <v>200</v>
       </c>
-      <c r="F6" s="2">
-        <v>600</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
         <v>900</v>
       </c>
       <c r="D7" s="3">
@@ -1475,37 +1479,37 @@
       <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="2">
-        <v>300</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8100</v>
+        <v>1000</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8200</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>700</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2600</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1516,7 +1520,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1527,7 +1531,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1538,7 +1542,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1549,16 +1553,16 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -1571,18 +1575,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" customWidth="1"/>
-    <col min="3" max="4" width="42.7265625" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="4" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1596,965 +1600,965 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11">
+        <v>116</v>
+      </c>
+      <c r="D6" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="11">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11">
+        <v>56</v>
+      </c>
+      <c r="D13" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="11">
+        <v>24</v>
+      </c>
+      <c r="D22" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="11">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11">
+        <v>15</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D29" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C30" s="11">
+        <v>6</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="11">
+        <v>22</v>
+      </c>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="11">
+        <v>30</v>
+      </c>
+      <c r="D33" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="11">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="11">
+        <v>34</v>
+      </c>
+      <c r="D37" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="11">
+        <v>46</v>
+      </c>
+      <c r="D38" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="11">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="11">
+        <v>89</v>
+      </c>
+      <c r="D42" s="11">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="11">
+        <v>19</v>
+      </c>
+      <c r="D43" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="11">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="11">
+        <v>15</v>
+      </c>
+      <c r="D46" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="11">
+        <v>33</v>
+      </c>
+      <c r="D48" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="11">
+        <v>16</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="11">
+        <v>19</v>
+      </c>
+      <c r="D50" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="11">
+        <v>22</v>
+      </c>
+      <c r="D54" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="11">
+        <v>36</v>
+      </c>
+      <c r="D55" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="11">
+        <v>31</v>
+      </c>
+      <c r="D57" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="11">
+        <v>13</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="11">
+        <v>34</v>
+      </c>
+      <c r="D59" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="11">
+        <v>41</v>
+      </c>
+      <c r="D60" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="11">
+        <v>31</v>
+      </c>
+      <c r="D61" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="11">
+        <v>22</v>
+      </c>
+      <c r="D62" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="11">
+        <v>54</v>
+      </c>
+      <c r="D63" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="11">
+        <v>19</v>
+      </c>
+      <c r="D64" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="11">
+        <v>9</v>
+      </c>
+      <c r="D65" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="11">
+        <v>29</v>
+      </c>
+      <c r="D66" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="11">
+        <v>46</v>
+      </c>
+      <c r="D67" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="11">
+        <v>31</v>
+      </c>
+      <c r="D68" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="11">
+        <v>18</v>
+      </c>
+      <c r="D69" s="11">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>109</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>24</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>27</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>29</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>44</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42">
-        <v>91</v>
-      </c>
-      <c r="D42">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43">
-        <v>23</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>37</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49">
-        <v>13</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50">
-        <v>17</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54">
-        <v>21</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55">
-        <v>28</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57">
-        <v>36</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59">
-        <v>28</v>
-      </c>
-      <c r="D59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60">
-        <v>36</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61">
-        <v>31</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62">
-        <v>21</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63">
-        <v>46</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66">
-        <v>29</v>
-      </c>
-      <c r="D66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67">
-        <v>41</v>
-      </c>
-      <c r="D67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68">
-        <v>29</v>
-      </c>
-      <c r="D68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69">
-        <v>19</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>18</v>
       </c>
@@ -2562,25 +2566,25 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2593,21 +2597,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -2721,15 +2716,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2738,7 +2734,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2752,4 +2748,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB95CBA-4999-45AE-96A7-449A4A87E709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AB055-C232-4A48-8D3B-85A2E2116252}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -98,10 +98,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1311,21 +1308,21 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,11 +1345,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>400</v>
       </c>
       <c r="C2" s="3">
@@ -1361,44 +1358,44 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>200</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>700</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>200</v>
+      <c r="B3" s="3">
+        <v>100</v>
       </c>
       <c r="C3" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>100</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>500</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
       <c r="C4" s="3">
@@ -1407,21 +1404,21 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
-        <v>300</v>
+      <c r="F4">
+        <v>400</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>100</v>
       </c>
       <c r="C5" s="3">
@@ -1433,18 +1430,18 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>200</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>100</v>
       </c>
       <c r="C6" s="3">
@@ -1453,63 +1450,63 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>100</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>200</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
+        <v>200</v>
+      </c>
+      <c r="C7" s="3">
+        <v>800</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
-        <v>900</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <v>200</v>
+      <c r="F7">
+        <v>300</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>1000</v>
       </c>
       <c r="C8" s="9">
-        <v>8200</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>600</v>
       </c>
-      <c r="F8" s="9">
-        <v>2100</v>
+      <c r="F8">
+        <v>2300</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1520,7 +1517,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1531,7 +1528,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1542,7 +1539,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1553,16 +1550,16 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -1575,18 +1572,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="4" width="42.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="4" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1622,13 +1619,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1656,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -1664,13 +1661,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D6" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1684,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>97</v>
       </c>
@@ -1692,13 +1689,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
@@ -1706,13 +1703,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1734,13 +1731,13 @@
         <v>32</v>
       </c>
       <c r="C11" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1748,13 +1745,13 @@
         <v>35</v>
       </c>
       <c r="C12" s="11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -1762,13 +1759,13 @@
         <v>37</v>
       </c>
       <c r="C13" s="11">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1776,13 +1773,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D14" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>98</v>
       </c>
@@ -1790,13 +1787,13 @@
         <v>37</v>
       </c>
       <c r="C15" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1804,13 +1801,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1832,13 +1829,13 @@
         <v>37</v>
       </c>
       <c r="C18" s="11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1846,13 +1843,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1860,13 +1857,13 @@
         <v>44</v>
       </c>
       <c r="C20" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D20" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -1874,13 +1871,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1888,13 +1885,13 @@
         <v>37</v>
       </c>
       <c r="C22" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>48</v>
       </c>
@@ -1908,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>49</v>
       </c>
@@ -1916,13 +1913,13 @@
         <v>50</v>
       </c>
       <c r="C24" s="11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>99</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -1944,13 +1941,13 @@
         <v>44</v>
       </c>
       <c r="C26" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1958,13 +1955,13 @@
         <v>30</v>
       </c>
       <c r="C27" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>53</v>
       </c>
@@ -1972,13 +1969,13 @@
         <v>46</v>
       </c>
       <c r="C28" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
@@ -1986,13 +1983,13 @@
         <v>35</v>
       </c>
       <c r="C29" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D29" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>55</v>
       </c>
@@ -2000,13 +1997,13 @@
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
@@ -2014,13 +2011,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>58</v>
       </c>
@@ -2042,13 +2039,13 @@
         <v>20</v>
       </c>
       <c r="C33" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>59</v>
       </c>
@@ -2056,13 +2053,13 @@
         <v>27</v>
       </c>
       <c r="C34" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>60</v>
       </c>
@@ -2070,13 +2067,13 @@
         <v>44</v>
       </c>
       <c r="C35" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>61</v>
       </c>
@@ -2084,13 +2081,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -2098,13 +2095,13 @@
         <v>20</v>
       </c>
       <c r="C37" s="11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D37" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>63</v>
       </c>
@@ -2112,13 +2109,13 @@
         <v>44</v>
       </c>
       <c r="C38" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>64</v>
       </c>
@@ -2132,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>100</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>67</v>
       </c>
@@ -2168,13 +2165,13 @@
         <v>37</v>
       </c>
       <c r="C42" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D42" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>68</v>
       </c>
@@ -2182,13 +2179,13 @@
         <v>44</v>
       </c>
       <c r="C43" s="11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D43" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>69</v>
       </c>
@@ -2196,13 +2193,13 @@
         <v>27</v>
       </c>
       <c r="C44" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>70</v>
       </c>
@@ -2216,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>71</v>
       </c>
@@ -2224,13 +2221,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D46" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>72</v>
       </c>
@@ -2244,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>73</v>
       </c>
@@ -2252,13 +2249,13 @@
         <v>23</v>
       </c>
       <c r="C48" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>74</v>
       </c>
@@ -2266,13 +2263,13 @@
         <v>75</v>
       </c>
       <c r="C49" s="11">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>76</v>
       </c>
@@ -2280,13 +2277,13 @@
         <v>44</v>
       </c>
       <c r="C50" s="11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D50" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>77</v>
       </c>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>79</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>81</v>
       </c>
@@ -2336,13 +2333,13 @@
         <v>44</v>
       </c>
       <c r="C54" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>82</v>
       </c>
@@ -2350,13 +2347,13 @@
         <v>20</v>
       </c>
       <c r="C55" s="11">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D55" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>83</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>84</v>
       </c>
@@ -2378,13 +2375,13 @@
         <v>23</v>
       </c>
       <c r="C57" s="11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>85</v>
       </c>
@@ -2392,13 +2389,13 @@
         <v>44</v>
       </c>
       <c r="C58" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>86</v>
       </c>
@@ -2406,13 +2403,13 @@
         <v>32</v>
       </c>
       <c r="C59" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>87</v>
       </c>
@@ -2420,13 +2417,13 @@
         <v>75</v>
       </c>
       <c r="C60" s="11">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D60" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>88</v>
       </c>
@@ -2434,13 +2431,13 @@
         <v>75</v>
       </c>
       <c r="C61" s="11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D61" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>89</v>
       </c>
@@ -2448,13 +2445,13 @@
         <v>37</v>
       </c>
       <c r="C62" s="11">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>90</v>
       </c>
@@ -2462,13 +2459,13 @@
         <v>75</v>
       </c>
       <c r="C63" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D63" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>91</v>
       </c>
@@ -2476,13 +2473,13 @@
         <v>75</v>
       </c>
       <c r="C64" s="11">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D64" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>92</v>
       </c>
@@ -2493,10 +2490,10 @@
         <v>9</v>
       </c>
       <c r="D65" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>93</v>
       </c>
@@ -2504,13 +2501,13 @@
         <v>37</v>
       </c>
       <c r="C66" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>94</v>
       </c>
@@ -2518,13 +2515,13 @@
         <v>23</v>
       </c>
       <c r="C67" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D67" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>95</v>
       </c>
@@ -2532,13 +2529,13 @@
         <v>23</v>
       </c>
       <c r="C68" s="11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D68" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>96</v>
       </c>
@@ -2552,13 +2549,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>18</v>
       </c>
@@ -2566,25 +2563,25 @@
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2597,9 +2594,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2717,19 +2717,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2751,9 +2747,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AB055-C232-4A48-8D3B-85A2E2116252}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E27B89-0154-4CA3-A815-A73425F31B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -511,11 +511,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1307,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1321,7 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1332,7 +1337,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1352,19 +1357,19 @@
       <c r="B2" s="3">
         <v>400</v>
       </c>
-      <c r="C2" s="3">
-        <v>2700</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
+      <c r="C2" s="11">
+        <v>2600</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>700</v>
-      </c>
-      <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="G2" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1378,21 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
         <v>500</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1398,19 +1403,19 @@
       <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="C4" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
         <v>400</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1424,16 +1429,16 @@
       <c r="C5" s="3">
         <v>900</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1444,19 +1449,19 @@
       <c r="B6" s="3">
         <v>100</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>1000</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
         <v>200</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1470,16 +1475,16 @@
       <c r="C7" s="3">
         <v>800</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
       <c r="F7">
         <v>300</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1487,22 +1492,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="9">
-        <v>8000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>600</v>
-      </c>
-      <c r="F8">
-        <v>2300</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="12">
+        <v>1100</v>
+      </c>
+      <c r="C8" s="11">
+        <v>7700</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>700</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1510,7 +1515,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1521,7 +1526,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1532,7 +1537,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1543,7 +1548,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1572,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,86 +1603,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="10">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11">
-        <v>111</v>
-      </c>
-      <c r="D6" s="11">
-        <v>10</v>
+      <c r="C6" s="10">
+        <v>114</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1696,857 +1701,857 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11">
+      <c r="C13" s="10">
+        <v>49</v>
+      </c>
+      <c r="D13" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10">
+        <v>55</v>
+      </c>
+      <c r="D16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="10">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="10">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10">
+        <v>16</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="10">
+        <v>6</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10">
+        <v>30</v>
+      </c>
+      <c r="D29" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="10">
+        <v>7</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10">
+        <v>30</v>
+      </c>
+      <c r="D33" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="10">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10">
+        <v>27</v>
+      </c>
+      <c r="D35" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10">
+        <v>35</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="10">
+        <v>49</v>
+      </c>
+      <c r="D38" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="10">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="10">
+        <v>84</v>
+      </c>
+      <c r="D42" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="10">
+        <v>24</v>
+      </c>
+      <c r="D43" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="10">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="10">
+        <v>16</v>
+      </c>
+      <c r="D46" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="10">
         <v>32</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D48" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="10">
+        <v>33</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="10">
         <v>21</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="10">
+        <v>28</v>
+      </c>
+      <c r="D54" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="10">
+        <v>47</v>
+      </c>
+      <c r="D55" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="10">
+        <v>35</v>
+      </c>
+      <c r="D57" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="10">
+        <v>11</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="10">
+        <v>29</v>
+      </c>
+      <c r="D59" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="10">
+        <v>39</v>
+      </c>
+      <c r="D60" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="10">
+        <v>29</v>
+      </c>
+      <c r="D61" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="10">
+        <v>16</v>
+      </c>
+      <c r="D62" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="10">
+        <v>49</v>
+      </c>
+      <c r="D63" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="10">
+        <v>20</v>
+      </c>
+      <c r="D64" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11">
-        <v>12</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="D65" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11">
-        <v>48</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C66" s="10">
+        <v>27</v>
+      </c>
+      <c r="D66" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="10">
+        <v>43</v>
+      </c>
+      <c r="D67" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="11">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="10">
+        <v>28</v>
+      </c>
+      <c r="D68" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="C69" s="10">
+        <v>21</v>
+      </c>
+      <c r="D69" s="10">
         <v>3</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11">
-        <v>50</v>
-      </c>
-      <c r="D16" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11">
-        <v>17</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="11">
-        <v>48</v>
-      </c>
-      <c r="D18" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="11">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="11">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11">
-        <v>16</v>
-      </c>
-      <c r="D21" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="11">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="11">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="11">
-        <v>17</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="11">
-        <v>5</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="11">
-        <v>26</v>
-      </c>
-      <c r="D29" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="11">
-        <v>8</v>
-      </c>
-      <c r="D30" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="11">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="11">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="11">
-        <v>31</v>
-      </c>
-      <c r="D33" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="11">
-        <v>15</v>
-      </c>
-      <c r="D34" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="11">
-        <v>29</v>
-      </c>
-      <c r="D35" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="11">
-        <v>38</v>
-      </c>
-      <c r="D37" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="11">
-        <v>47</v>
-      </c>
-      <c r="D38" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="11">
-        <v>6</v>
-      </c>
-      <c r="D39" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="11">
-        <v>0</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="11">
-        <v>92</v>
-      </c>
-      <c r="D42" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="11">
-        <v>25</v>
-      </c>
-      <c r="D43" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="11">
-        <v>15</v>
-      </c>
-      <c r="D44" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="11">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="11">
-        <v>21</v>
-      </c>
-      <c r="D46" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="11">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="11">
-        <v>30</v>
-      </c>
-      <c r="D48" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="11">
-        <v>27</v>
-      </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="11">
-        <v>29</v>
-      </c>
-      <c r="D50" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="11">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="11">
-        <v>0</v>
-      </c>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="11">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="11">
-        <v>24</v>
-      </c>
-      <c r="D54" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="11">
-        <v>49</v>
-      </c>
-      <c r="D55" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="11">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="11">
-        <v>34</v>
-      </c>
-      <c r="D57" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="11">
-        <v>12</v>
-      </c>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="11">
-        <v>35</v>
-      </c>
-      <c r="D59" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="11">
-        <v>36</v>
-      </c>
-      <c r="D60" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="11">
-        <v>35</v>
-      </c>
-      <c r="D61" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="11">
-        <v>15</v>
-      </c>
-      <c r="D62" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="11">
-        <v>50</v>
-      </c>
-      <c r="D63" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="11">
-        <v>11</v>
-      </c>
-      <c r="D64" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="11">
-        <v>9</v>
-      </c>
-      <c r="D65" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="11">
-        <v>30</v>
-      </c>
-      <c r="D66" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="11">
-        <v>48</v>
-      </c>
-      <c r="D67" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="11">
-        <v>26</v>
-      </c>
-      <c r="D68" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="11">
-        <v>18</v>
-      </c>
-      <c r="D69" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,12 +2599,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2717,15 +2719,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2747,10 +2753,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E27B89-0154-4CA3-A815-A73425F31B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978BD11-2784-4040-B3E4-45EEF0D97EED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>Location</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Massachusetts Eye and Ear Infirmary*</t>
+  </si>
+  <si>
+    <t>UMass Memorial – ACS**</t>
+  </si>
+  <si>
+    <t>**ACS= Alternate Care Site</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -516,7 +522,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1313,7 +1318,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1326,7 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1337,7 +1342,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1354,22 +1359,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="11">
         <v>400</v>
       </c>
-      <c r="C2" s="11">
-        <v>2600</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="C2" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2" s="16">
+        <v>200</v>
+      </c>
+      <c r="F2" s="15">
+        <v>700</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1377,22 +1382,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="11">
         <v>200</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="15">
         <v>1200</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="15">
         <v>500</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -1400,22 +1405,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="11">
         <v>100</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="15">
         <v>1200</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>400</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="15">
+        <v>300</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -1426,19 +1431,19 @@
       <c r="B5" s="3">
         <v>100</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="15">
         <v>900</v>
       </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
         <v>200</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1446,22 +1451,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="11">
         <v>100</v>
       </c>
-      <c r="C6" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="15">
+        <v>900</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="15">
         <v>200</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -1472,19 +1477,19 @@
       <c r="B7" s="3">
         <v>200</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="15">
         <v>800</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="15">
         <v>300</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -1492,22 +1497,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1100</v>
       </c>
-      <c r="C8" s="11">
-        <v>7700</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>700</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="C8" s="15">
+        <v>7500</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>600</v>
+      </c>
+      <c r="F8" s="15">
         <v>2200</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
@@ -1515,7 +1520,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1526,7 +1531,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1537,7 +1542,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1548,7 +1553,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1575,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,10 +1629,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,10 +1657,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,10 +1671,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="10">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D6" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1685,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1694,7 +1699,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -1708,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10">
         <v>4</v>
@@ -1722,7 +1727,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
@@ -1739,7 +1744,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,10 +1755,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,10 +1769,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10">
         <v>4</v>
@@ -1806,10 +1811,10 @@
         <v>37</v>
       </c>
       <c r="C16" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,10 +1825,10 @@
         <v>37</v>
       </c>
       <c r="C17" s="10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="C18" s="10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,10 +1853,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,7 +1867,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10">
         <v>4</v>
@@ -1876,10 +1881,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,7 +1895,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="10">
         <v>10</v>
@@ -1918,7 +1923,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
@@ -1946,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="10">
         <v>3</v>
@@ -2002,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -2016,10 +2021,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2030,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -2044,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D33" s="10">
         <v>8</v>
@@ -2061,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,10 +2077,10 @@
         <v>44</v>
       </c>
       <c r="C35" s="10">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D35" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,7 +2108,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,7 +2119,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" s="10">
         <v>10</v>
@@ -2128,7 +2133,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
@@ -2170,10 +2175,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="10">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D42" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="10">
         <v>5</v>
@@ -2198,7 +2203,7 @@
         <v>27</v>
       </c>
       <c r="C44" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="10">
         <v>4</v>
@@ -2226,10 +2231,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D46" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,10 +2259,10 @@
         <v>23</v>
       </c>
       <c r="C48" s="10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D48" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,10 +2273,10 @@
         <v>75</v>
       </c>
       <c r="C49" s="10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D49" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,10 +2287,10 @@
         <v>44</v>
       </c>
       <c r="C50" s="10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D50" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,10 +2343,10 @@
         <v>44</v>
       </c>
       <c r="C54" s="10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D54" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,10 +2357,10 @@
         <v>20</v>
       </c>
       <c r="C55" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D55" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,10 +2385,10 @@
         <v>23</v>
       </c>
       <c r="C57" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,7 +2399,7 @@
         <v>44</v>
       </c>
       <c r="C58" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -2408,7 +2413,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="10">
         <v>7</v>
@@ -2422,7 +2427,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" s="10">
         <v>5</v>
@@ -2436,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D61" s="10">
         <v>5</v>
@@ -2464,10 +2469,10 @@
         <v>75</v>
       </c>
       <c r="C63" s="10">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D63" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,10 +2483,10 @@
         <v>75</v>
       </c>
       <c r="C64" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D64" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2497,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="10">
         <v>3</v>
@@ -2506,81 +2511,91 @@
         <v>37</v>
       </c>
       <c r="C66" s="10">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D66" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C67" s="10">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D67" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="10">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D68" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="10">
+        <v>31</v>
+      </c>
+      <c r="D69" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="10">
-        <v>21</v>
-      </c>
-      <c r="D69" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="C70" s="10">
+        <v>22</v>
+      </c>
+      <c r="D70" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2591,6 +2606,12 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,12 +2620,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -2718,6 +2733,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2728,15 +2749,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2752,6 +2764,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978BD11-2784-4040-B3E4-45EEF0D97EED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98BA65-A469-4D73-8315-295E79BEBE9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -521,7 +521,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1317,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1325,7 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1342,7 +1341,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1359,19 +1358,19 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>400</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="11">
         <v>2500</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>200</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2">
         <v>700</v>
       </c>
       <c r="G2">
@@ -1382,19 +1381,19 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>200</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>1200</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
         <v>100</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3">
         <v>500</v>
       </c>
       <c r="G3">
@@ -1405,19 +1404,19 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>100</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>1200</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>100</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4">
         <v>300</v>
       </c>
       <c r="G4">
@@ -1428,19 +1427,19 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="14">
         <v>100</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>900</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5">
         <v>200</v>
       </c>
       <c r="G5">
@@ -1451,19 +1450,19 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>100</v>
       </c>
-      <c r="C6" s="15">
-        <v>900</v>
+      <c r="C6" s="11">
+        <v>1000</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>100</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6">
         <v>200</v>
       </c>
       <c r="G6">
@@ -1474,19 +1473,19 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="14">
         <v>200</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>800</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>100</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7">
         <v>300</v>
       </c>
       <c r="G7">
@@ -1497,19 +1496,19 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>1100</v>
       </c>
-      <c r="C8" s="15">
-        <v>7500</v>
+      <c r="C8" s="11">
+        <v>7600</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <v>600</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>2200</v>
       </c>
       <c r="G8">
@@ -1520,7 +1519,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1531,7 +1530,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1542,7 +1541,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1553,7 +1552,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1582,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,7 +1656,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -1671,10 +1670,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="10">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D6" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1699,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -1713,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10">
         <v>4</v>
@@ -1727,7 +1726,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
@@ -1741,7 +1740,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -1755,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="10">
         <v>3</v>
@@ -1769,10 +1768,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,10 +1796,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,7 +1810,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16" s="10">
         <v>13</v>
@@ -1825,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -1839,10 +1838,10 @@
         <v>37</v>
       </c>
       <c r="C18" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,10 +1852,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="10">
         <v>4</v>
@@ -1881,10 +1880,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,10 +1894,10 @@
         <v>37</v>
       </c>
       <c r="C22" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,7 +1922,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
@@ -1951,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26" s="10">
         <v>3</v>
@@ -1979,10 +1978,10 @@
         <v>46</v>
       </c>
       <c r="C28" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,10 +1992,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="10">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D29" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,7 +2006,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -2021,10 +2020,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,7 +2034,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -2049,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D33" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,10 +2062,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,10 +2076,10 @@
         <v>44</v>
       </c>
       <c r="C35" s="10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D35" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2108,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,7 +2118,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D38" s="10">
         <v>10</v>
@@ -2133,10 +2132,10 @@
         <v>44</v>
       </c>
       <c r="C39" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2175,10 +2174,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,10 +2188,10 @@
         <v>44</v>
       </c>
       <c r="C43" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D43" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,7 +2202,7 @@
         <v>27</v>
       </c>
       <c r="C44" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D44" s="10">
         <v>4</v>
@@ -2231,10 +2230,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2262,7 +2261,7 @@
         <v>38</v>
       </c>
       <c r="D48" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2273,10 +2272,10 @@
         <v>75</v>
       </c>
       <c r="C49" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,10 +2286,10 @@
         <v>44</v>
       </c>
       <c r="C50" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2315,7 +2314,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
@@ -2343,7 +2342,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" s="10">
         <v>2</v>
@@ -2357,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="C55" s="10">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D55" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,10 +2384,10 @@
         <v>23</v>
       </c>
       <c r="C57" s="10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2412,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D59" s="10">
         <v>7</v>
@@ -2427,7 +2426,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D60" s="10">
         <v>5</v>
@@ -2441,10 +2440,10 @@
         <v>75</v>
       </c>
       <c r="C61" s="10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D61" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,7 +2457,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2468,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D63" s="10">
         <v>10</v>
@@ -2483,7 +2482,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" s="10">
         <v>3</v>
@@ -2497,7 +2496,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65" s="10">
         <v>3</v>
@@ -2511,10 +2510,10 @@
         <v>37</v>
       </c>
       <c r="C66" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2525,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -2539,7 +2538,7 @@
         <v>23</v>
       </c>
       <c r="C68" s="10">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D68" s="10">
         <v>10</v>
@@ -2553,10 +2552,10 @@
         <v>23</v>
       </c>
       <c r="C69" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D69" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,10 +2566,10 @@
         <v>44</v>
       </c>
       <c r="C70" s="10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D70" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2620,6 +2619,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -2733,33 +2747,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2774,9 +2765,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98BA65-A469-4D73-8315-295E79BEBE9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A5F32E-3CA4-45BE-949F-2097EFB9EA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -165,6 +165,9 @@
     <t>*Specialty hospital data may be delayed and patient composition may vary.</t>
   </si>
   <si>
+    <t>**ACS= Alternate Care Site</t>
+  </si>
+  <si>
     <t>Addison Gilbert Hospital</t>
   </si>
   <si>
@@ -412,9 +415,6 @@
   </si>
   <si>
     <t>UMass Memorial – ACS**</t>
-  </si>
-  <si>
-    <t>**ACS= Alternate Care Site</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -521,10 +521,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1317,21 +1316,21 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1340,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1354,221 +1353,221 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="2">
         <v>400</v>
       </c>
-      <c r="C2" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="C2" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>200</v>
       </c>
-      <c r="F2">
-        <v>700</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>600</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="2">
         <v>200</v>
       </c>
-      <c r="C3" s="11">
-        <v>1200</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="C3" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>300</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="11">
-        <v>1200</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="C4" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>300</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="2">
         <v>900</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>1000</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>200</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>800</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>300</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="1">
         <v>1100</v>
       </c>
-      <c r="C8" s="11">
-        <v>7600</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="C8" s="1">
+        <v>7900</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>600</v>
       </c>
-      <c r="F8" s="11">
-        <v>2200</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -1581,18 +1580,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="4" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1606,12 +1605,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
@@ -1620,26 +1619,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
@@ -1648,82 +1647,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D6" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="10">
         <v>16</v>
@@ -1732,180 +1731,180 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="10">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D20" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="10">
-        <v>19</v>
-      </c>
       <c r="D21" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="10">
         <v>0</v>
@@ -1914,26 +1913,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
@@ -1942,54 +1941,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="10">
         <v>13</v>
       </c>
       <c r="D26" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="10">
         <v>36</v>
@@ -1998,152 +1997,152 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10">
+        <v>42</v>
+      </c>
+      <c r="D35" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10">
+        <v>38</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="10">
         <v>59</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="10">
-        <v>16</v>
-      </c>
-      <c r="D34" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="10">
-        <v>43</v>
-      </c>
-      <c r="D35" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="10">
-        <v>35</v>
-      </c>
-      <c r="D37" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="10">
-        <v>56</v>
-      </c>
       <c r="D38" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="10">
         <v>0</v>
@@ -2152,12 +2151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="10">
         <v>0</v>
@@ -2166,40 +2165,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="10">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D43" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" s="10">
         <v>24</v>
@@ -2208,12 +2207,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="10">
         <v>0</v>
@@ -2222,26 +2221,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" s="10">
         <v>0</v>
@@ -2250,54 +2249,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="10">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="10">
         <v>0</v>
@@ -2306,12 +2305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52" s="10">
         <v>1</v>
@@ -2320,12 +2319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" s="10">
         <v>0</v>
@@ -2334,124 +2333,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="10">
+        <v>38</v>
+      </c>
+      <c r="D57" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="10">
+        <v>15</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="10">
+        <v>36</v>
+      </c>
+      <c r="D59" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="10">
-        <v>34</v>
-      </c>
-      <c r="D57" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="10">
-        <v>12</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="10">
-        <v>32</v>
-      </c>
-      <c r="D59" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="10">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D60" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="10">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D61" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="10">
         <v>16</v>
@@ -2460,125 +2459,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" s="10">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D63" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" s="10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D64" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C65" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C67" s="10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D68" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D69" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>18</v>
       </c>
@@ -2586,27 +2585,27 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A5F32E-3CA4-45BE-949F-2097EFB9EA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97237DAC-CAF7-4924-AA98-F80C078BFC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,16 +1361,16 @@
         <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>1100</v>
       </c>
       <c r="C8" s="1">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F8" s="1">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10">
         <v>3</v>
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -1669,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="10">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="10">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10">
         <v>5</v>
@@ -1725,7 +1725,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
@@ -1739,10 +1739,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,10 +1823,10 @@
         <v>38</v>
       </c>
       <c r="C17" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="10">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D18" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,7 +1851,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="10">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10">
         <v>3</v>
@@ -1879,10 +1879,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,10 +1893,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1924,7 +1924,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1952,7 +1952,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="10">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D29" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="10">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D35" s="10">
         <v>11</v>
@@ -2089,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D37" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>45</v>
       </c>
       <c r="C38" s="10">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D38" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>45</v>
       </c>
       <c r="C39" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,10 +2173,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D42" s="10">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="10">
         <v>6</v>
@@ -2201,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="C44" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="10">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D46" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="10">
         <v>3</v>
@@ -2271,7 +2271,7 @@
         <v>76</v>
       </c>
       <c r="C49" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D49" s="10">
         <v>2</v>
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,10 +2355,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D55" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="C57" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="C59" s="10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D59" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>76</v>
       </c>
       <c r="C60" s="10">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60" s="10">
         <v>3</v>
@@ -2439,10 +2439,10 @@
         <v>76</v>
       </c>
       <c r="C61" s="10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D61" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" s="10">
         <v>3</v>
@@ -2467,7 +2467,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="10">
         <v>9</v>
@@ -2481,10 +2481,10 @@
         <v>76</v>
       </c>
       <c r="C64" s="10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D64" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="C65" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="10">
         <v>4</v>
@@ -2509,10 +2509,10 @@
         <v>38</v>
       </c>
       <c r="C66" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D66" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D68" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D69" s="10">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C70" s="10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D70" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97237DAC-CAF7-4924-AA98-F80C078BFC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5954214-94FD-4536-9BDE-382B5F9A6D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,7 +1370,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="1">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,968 +1606,968 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
         <v>28</v>
       </c>
-      <c r="C6" s="10">
-        <v>104</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="D33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>33</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
         <v>33</v>
       </c>
-      <c r="C10" s="10">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10">
-        <v>21</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="10">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10">
-        <v>68</v>
-      </c>
-      <c r="D18" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="D69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="10">
-        <v>31</v>
-      </c>
-      <c r="D20" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="10">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="10">
-        <v>30</v>
-      </c>
-      <c r="D22" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="10">
-        <v>16</v>
-      </c>
-      <c r="D24" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="10">
-        <v>13</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="10">
-        <v>7</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="10">
-        <v>29</v>
-      </c>
-      <c r="D29" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="10">
-        <v>21</v>
-      </c>
-      <c r="D31" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="10">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="10">
-        <v>34</v>
-      </c>
-      <c r="D33" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="10">
-        <v>16</v>
-      </c>
-      <c r="D34" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="10">
-        <v>49</v>
-      </c>
-      <c r="D35" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="10">
-        <v>35</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="10">
-        <v>52</v>
-      </c>
-      <c r="D38" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="10">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="10">
-        <v>95</v>
-      </c>
-      <c r="D42" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="10">
-        <v>35</v>
-      </c>
-      <c r="D43" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="10">
-        <v>26</v>
-      </c>
-      <c r="D44" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="10">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="10">
-        <v>17</v>
-      </c>
-      <c r="D46" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="10">
-        <v>41</v>
-      </c>
-      <c r="D48" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="10">
-        <v>37</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="10">
-        <v>28</v>
-      </c>
-      <c r="D50" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="10">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="10">
-        <v>26</v>
-      </c>
-      <c r="D54" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="10">
-        <v>52</v>
-      </c>
-      <c r="D55" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="10">
-        <v>39</v>
-      </c>
-      <c r="D57" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="10">
-        <v>17</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="10">
-        <v>33</v>
-      </c>
-      <c r="D59" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="10">
-        <v>34</v>
-      </c>
-      <c r="D60" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="10">
-        <v>26</v>
-      </c>
-      <c r="D61" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="10">
-        <v>17</v>
-      </c>
-      <c r="D62" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="10">
-        <v>48</v>
-      </c>
-      <c r="D63" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="10">
-        <v>16</v>
-      </c>
-      <c r="D64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="10">
-        <v>6</v>
-      </c>
-      <c r="D65" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="10">
-        <v>29</v>
-      </c>
-      <c r="D66" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="10">
-        <v>21</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="10">
-        <v>39</v>
-      </c>
-      <c r="D68" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="10">
-        <v>34</v>
-      </c>
-      <c r="D69" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="10">
-        <v>23</v>
-      </c>
-      <c r="D70" s="10">
+      <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70">
         <v>3</v>
       </c>
     </row>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5954214-94FD-4536-9BDE-382B5F9A6D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA32E662-57AC-4F0C-A700-6C1CBDD4F1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,19 +1358,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2">
-        <v>2700</v>
+        <v>2535</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2">
-        <v>1300</v>
+        <v>1219</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1450,19 +1450,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1473,22 +1473,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2">
-        <v>900</v>
+        <v>861</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F7" s="2">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1496,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1100</v>
+        <v>1066</v>
       </c>
       <c r="C8" s="1">
-        <v>8100</v>
+        <v>7802</v>
       </c>
       <c r="D8" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>500</v>
+        <v>395</v>
       </c>
       <c r="F8" s="1">
-        <v>1300</v>
+        <v>1511</v>
       </c>
       <c r="G8" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D70"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1630,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1655,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1767,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,10 +1781,10 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,10 +1795,10 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>63</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,10 +1851,10 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,10 +1865,10 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,10 +1879,10 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,10 +1893,10 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1949,10 +1949,10 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1980,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2005,10 +2005,10 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,10 +2019,10 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,10 +2033,10 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,10 +2103,10 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,10 +2173,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2201,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>21</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2271,10 +2271,10 @@
         <v>76</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
         <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,10 +2341,10 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>11</v>
@@ -2383,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         <v>76</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2442,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2453,10 +2453,10 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -2495,10 +2495,10 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2509,10 +2509,10 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2627,12 +2627,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -2746,6 +2740,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>
@@ -2755,15 +2755,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2777,4 +2768,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA32E662-57AC-4F0C-A700-6C1CBDD4F1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837EBE6-C3BD-4BED-8F40-69BD044547D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,19 +1358,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C2" s="2">
-        <v>2535</v>
+        <v>2421</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2">
-        <v>1310</v>
+        <v>1268</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2">
-        <v>1219</v>
+        <v>1244</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>154</v>
@@ -1450,19 +1450,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1473,22 +1473,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D7" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="G7" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1496,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1066</v>
+        <v>1011</v>
       </c>
       <c r="C8" s="1">
-        <v>7802</v>
+        <v>7635</v>
       </c>
       <c r="D8" s="13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="F8" s="1">
-        <v>1511</v>
+        <v>1602</v>
       </c>
       <c r="G8" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1655,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1753,7 +1753,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1767,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1795,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1809,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1837,10 +1837,10 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,7 +1851,7 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,10 +1879,10 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1896,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1921,10 +1921,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1949,10 +1949,10 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>47</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2005,10 +2005,10 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2033,10 +2033,10 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,10 +2075,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,10 +2103,10 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
         <v>60</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2145,7 +2145,7 @@
         <v>67</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2201,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -2243,7 +2243,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2271,10 +2271,10 @@
         <v>76</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,10 +2341,10 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>11</v>
@@ -2386,7 +2386,7 @@
         <v>48</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>76</v>
       </c>
       <c r="C60">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -2439,10 +2439,10 @@
         <v>76</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2467,10 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
         <v>76</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2495,10 +2495,10 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2509,10 +2509,10 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837EBE6-C3BD-4BED-8F40-69BD044547D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B70A901-060E-4440-A45C-58585F419F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,21 +1358,21 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>381</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2421</v>
+        <v>408</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2558</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>127</v>
-      </c>
-      <c r="F2" s="2">
-        <v>464</v>
-      </c>
-      <c r="G2" s="3">
+        <v>103</v>
+      </c>
+      <c r="F2" s="3">
+        <v>371</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1381,21 +1381,21 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>160</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1268</v>
+        <v>169</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1350</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2">
-        <v>252</v>
-      </c>
-      <c r="G3" s="3">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3">
+        <v>208</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -1404,21 +1404,21 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>119</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1244</v>
+        <v>131</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1283</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>83</v>
-      </c>
-      <c r="F4" s="2">
-        <v>293</v>
-      </c>
-      <c r="G4" s="3">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3">
+        <v>270</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -1427,21 +1427,21 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2">
-        <v>891</v>
+        <v>92</v>
+      </c>
+      <c r="C5" s="3">
+        <v>918</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2">
-        <v>154</v>
-      </c>
-      <c r="G5" s="3">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3">
+        <v>134</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1450,21 +1450,21 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2">
-        <v>954</v>
+        <v>95</v>
+      </c>
+      <c r="C6" s="3">
+        <v>950</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>62</v>
-      </c>
-      <c r="F6" s="2">
-        <v>202</v>
-      </c>
-      <c r="G6" s="3">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3">
+        <v>211</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>160</v>
-      </c>
-      <c r="C7" s="2">
-        <v>857</v>
+        <v>169</v>
+      </c>
+      <c r="C7" s="3">
+        <v>879</v>
       </c>
       <c r="D7" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>97</v>
-      </c>
-      <c r="F7" s="2">
-        <v>237</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="F7" s="3">
+        <v>215</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1496,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1011</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7635</v>
+        <v>1064</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7938</v>
       </c>
       <c r="D8" s="13">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>437</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1602</v>
-      </c>
-      <c r="G8" s="13">
-        <v>2</v>
+        <v>400</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1409</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D70"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1739,10 +1739,10 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,10 +1781,10 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1812,7 +1812,7 @@
         <v>70</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,10 +1823,10 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1837,7 +1837,7 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1851,10 +1851,10 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1879,10 +1879,10 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1921,10 +1921,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>47</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1991,10 +1991,10 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2005,10 +2005,10 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,10 +2019,10 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -2103,7 +2103,7 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -2117,7 +2117,7 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -2131,7 +2131,7 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -2145,7 +2145,7 @@
         <v>67</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2201,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -2243,7 +2243,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2271,10 +2271,10 @@
         <v>76</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -2355,10 +2355,10 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,10 +2425,10 @@
         <v>76</v>
       </c>
       <c r="C60">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -2481,10 +2481,10 @@
         <v>76</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -2509,10 +2509,10 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2540,7 +2540,7 @@
         <v>55</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C70">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B70A901-060E-4440-A45C-58585F419F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888D2395-5A8A-4FE9-A446-01C290A10CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,20 +1357,20 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
+        <v>407</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2532</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>104</v>
+      </c>
+      <c r="F2">
         <v>408</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2558</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>103</v>
-      </c>
-      <c r="F2" s="3">
-        <v>371</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1380,20 +1380,20 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>169</v>
+      <c r="B3" s="3">
+        <v>162</v>
       </c>
       <c r="C3" s="3">
-        <v>1350</v>
+        <v>1241</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3">
-        <v>208</v>
+      <c r="E3">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>261</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1403,20 +1403,20 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>131</v>
+      <c r="B4" s="3">
+        <v>129</v>
       </c>
       <c r="C4" s="3">
-        <v>1283</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>72</v>
       </c>
-      <c r="F4" s="3">
-        <v>270</v>
+      <c r="F4">
+        <v>286</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1426,20 +1426,20 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>92</v>
+      <c r="B5" s="3">
+        <v>95</v>
       </c>
       <c r="C5" s="3">
-        <v>918</v>
+        <v>864</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3">
-        <v>134</v>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>166</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1449,20 +1449,20 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>95</v>
+      <c r="B6" s="3">
+        <v>83</v>
       </c>
       <c r="C6" s="3">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-      <c r="F6" s="3">
-        <v>211</v>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>203</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1472,46 +1472,46 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>169</v>
+      <c r="B7" s="3">
+        <v>160</v>
       </c>
       <c r="C7" s="3">
-        <v>879</v>
+        <v>831</v>
       </c>
       <c r="D7" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>88</v>
-      </c>
-      <c r="F7" s="3">
-        <v>215</v>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>252</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>1064</v>
+      <c r="B8" s="13">
+        <v>1036</v>
       </c>
       <c r="C8" s="13">
-        <v>7938</v>
+        <v>7672</v>
       </c>
       <c r="D8" s="13">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>400</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1409</v>
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>422</v>
+      </c>
+      <c r="F8">
+        <v>1576</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1655,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1742,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1795,10 +1795,10 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,10 +1823,10 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,10 +1851,10 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,10 +1865,10 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1896,7 +1896,7 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1921,10 +1921,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1949,10 +1949,10 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1977,10 +1977,10 @@
         <v>47</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2005,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2019,10 +2019,10 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,10 +2061,10 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,10 +2075,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,10 +2103,10 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2145,7 +2145,7 @@
         <v>67</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2201,7 +2201,7 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -2229,10 +2229,10 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>76</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,7 +2313,7 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2341,10 +2341,10 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,10 +2355,10 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="C59">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,10 +2425,10 @@
         <v>76</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>76</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2453,10 +2453,10 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2467,10 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2495,10 +2495,10 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2509,10 +2509,10 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2618,12 +2618,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2741,15 +2738,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2771,10 +2772,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888D2395-5A8A-4FE9-A446-01C290A10CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329D849-FAA5-4309-8982-4B03272174EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,19 +1358,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C2" s="3">
-        <v>2532</v>
-      </c>
-      <c r="D2" s="3">
+        <v>2631</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F2">
-        <v>408</v>
+        <v>267</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3">
-        <v>1241</v>
-      </c>
-      <c r="D3" s="3">
+        <v>1304</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3">
-        <v>1259</v>
-      </c>
-      <c r="D4" s="3">
+        <v>1243</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3">
-        <v>864</v>
-      </c>
-      <c r="D5" s="3">
+        <v>885</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1450,16 +1450,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3">
-        <v>945</v>
-      </c>
-      <c r="D6" s="3">
+        <v>947</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>203</v>
@@ -1473,22 +1473,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3">
-        <v>831</v>
-      </c>
-      <c r="D7" s="3">
-        <v>27</v>
+        <v>876</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1496,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="13">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="C8" s="13">
-        <v>7672</v>
-      </c>
-      <c r="D8" s="13">
-        <v>27</v>
+        <v>7886</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="F8">
-        <v>1576</v>
+        <v>1338</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,969 +1606,969 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10">
+        <v>118</v>
+      </c>
+      <c r="D6" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10">
+        <v>60</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10">
+        <v>73</v>
+      </c>
+      <c r="D16" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10">
+        <v>92</v>
+      </c>
+      <c r="D18" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10">
+        <v>34</v>
+      </c>
+      <c r="D20" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10">
+        <v>27</v>
+      </c>
+      <c r="D22" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="10">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="10">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="10">
+        <v>35</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10">
+        <v>36</v>
+      </c>
+      <c r="D31" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10">
+        <v>12</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="10">
+        <v>37</v>
+      </c>
+      <c r="D33" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10">
+        <v>8</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10">
+        <v>41</v>
+      </c>
+      <c r="D37" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="10">
+        <v>58</v>
+      </c>
+      <c r="D38" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="10">
+        <v>15</v>
+      </c>
+      <c r="D39" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="10">
+        <v>119</v>
+      </c>
+      <c r="D42" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="10">
+        <v>33</v>
+      </c>
+      <c r="D43" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="10">
+        <v>21</v>
+      </c>
+      <c r="D44" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="10">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="10">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="10">
+        <v>42</v>
+      </c>
+      <c r="D48" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="10">
+        <v>47</v>
+      </c>
+      <c r="D49" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="10">
+        <v>40</v>
+      </c>
+      <c r="D50" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="10">
+        <v>4</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="10">
+        <v>33</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="10">
+        <v>56</v>
+      </c>
+      <c r="D55" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="10">
+        <v>46</v>
+      </c>
+      <c r="D57" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="10">
+        <v>9</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="10">
+        <v>49</v>
+      </c>
+      <c r="D59" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="10">
+        <v>38</v>
+      </c>
+      <c r="D60" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="10">
+        <v>41</v>
+      </c>
+      <c r="D61" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="10">
+        <v>28</v>
+      </c>
+      <c r="D62" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="10">
+        <v>33</v>
+      </c>
+      <c r="D63" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="10">
+        <v>25</v>
+      </c>
+      <c r="D64" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="10">
+        <v>6</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="10">
+        <v>36</v>
+      </c>
+      <c r="D66" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="10">
+        <v>27</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="10">
+        <v>56</v>
+      </c>
+      <c r="D68" s="10">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C69" s="10">
+        <v>40</v>
+      </c>
+      <c r="D69" s="10">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>122</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="D10">
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="10">
+        <v>43</v>
+      </c>
+      <c r="D70" s="10">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>71</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>32</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33">
-        <v>35</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>58</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37">
-        <v>42</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38">
-        <v>66</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42">
-        <v>113</v>
-      </c>
-      <c r="D42">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>29</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44">
-        <v>25</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>27</v>
-      </c>
-      <c r="D46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48">
-        <v>43</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49">
-        <v>43</v>
-      </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50">
-        <v>38</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54">
-        <v>32</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55">
-        <v>57</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <v>47</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58">
-        <v>9</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59">
-        <v>49</v>
-      </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60">
-        <v>38</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61">
-        <v>37</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62">
-        <v>26</v>
-      </c>
-      <c r="D62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63">
-        <v>35</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67">
-        <v>27</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68">
-        <v>53</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69">
-        <v>38</v>
-      </c>
-      <c r="D69">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70">
-        <v>44</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329D849-FAA5-4309-8982-4B03272174EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF7E5A-7E76-4B1C-96F8-38ED77F12009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,22 +1357,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>420</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2631</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>89</v>
-      </c>
-      <c r="F2">
-        <v>267</v>
-      </c>
-      <c r="G2">
+      <c r="B2" s="2">
+        <v>430</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2313</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2">
+        <v>555</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1380,22 +1380,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
-        <v>171</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1304</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>207</v>
-      </c>
-      <c r="G3">
+      <c r="B3" s="2">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1271</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2">
+        <v>218</v>
+      </c>
+      <c r="G3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1403,22 +1403,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>124</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1243</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>77</v>
-      </c>
-      <c r="F4">
-        <v>306</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="2">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1194</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2">
+        <v>329</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1426,22 +1426,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>92</v>
       </c>
-      <c r="C5" s="3">
-        <v>885</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>145</v>
-      </c>
-      <c r="G5">
+      <c r="C5" s="2">
+        <v>844</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>147</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1449,22 +1449,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>93</v>
-      </c>
-      <c r="C6" s="3">
-        <v>947</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-      <c r="F6">
-        <v>203</v>
-      </c>
-      <c r="G6">
+      <c r="B6" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2">
+        <v>872</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2">
+        <v>277</v>
+      </c>
+      <c r="G6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1472,46 +1472,46 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
-        <v>157</v>
-      </c>
-      <c r="C7" s="3">
-        <v>876</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>210</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
+      <c r="B7" s="2">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2">
+        <v>840</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2">
+        <v>230</v>
+      </c>
+      <c r="G7" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13">
-        <v>1057</v>
-      </c>
-      <c r="C8" s="13">
-        <v>7886</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>390</v>
-      </c>
-      <c r="F8">
-        <v>1338</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
+      <c r="B8" s="1">
+        <v>1050</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7334</v>
+      </c>
+      <c r="D8" s="13">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>405</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1756</v>
+      </c>
+      <c r="G8" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,10 +1627,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1655,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="C5" s="10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="10">
         <v>3</v>
@@ -1725,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="10">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D13" s="10">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,10 +1781,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -1809,7 +1809,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10">
         <v>17</v>
@@ -1823,10 +1823,10 @@
         <v>38</v>
       </c>
       <c r="C17" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="10">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,10 +1851,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,10 +1865,10 @@
         <v>45</v>
       </c>
       <c r="C20" s="10">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D20" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,10 +1879,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,10 +1893,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D22" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1921,10 +1921,10 @@
         <v>51</v>
       </c>
       <c r="C24" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="10">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" s="10">
         <v>2</v>
@@ -1991,10 +1991,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D29" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2005,10 +2005,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,10 +2019,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D31" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="10">
         <v>4</v>
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="C33" s="10">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D33" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D34" s="10">
         <v>2</v>
@@ -2075,10 +2075,10 @@
         <v>45</v>
       </c>
       <c r="C35" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,10 +2103,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="10">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D37" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>45</v>
       </c>
       <c r="C38" s="10">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D38" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,10 +2173,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="10">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,10 +2187,10 @@
         <v>45</v>
       </c>
       <c r="C43" s="10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D43" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="C44" s="10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2229,10 +2229,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D48" s="10">
         <v>6</v>
@@ -2271,10 +2271,10 @@
         <v>76</v>
       </c>
       <c r="C49" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D50" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,10 +2341,10 @@
         <v>45</v>
       </c>
       <c r="C54" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D54" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,10 +2355,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="C57" s="10">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D57" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="C59" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D59" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,10 +2425,10 @@
         <v>76</v>
       </c>
       <c r="C60" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>76</v>
       </c>
       <c r="C61" s="10">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D61" s="10">
         <v>5</v>
@@ -2453,10 +2453,10 @@
         <v>38</v>
       </c>
       <c r="C62" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2467,10 @@
         <v>76</v>
       </c>
       <c r="C63" s="10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D63" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
         <v>76</v>
       </c>
       <c r="C64" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D64" s="10">
         <v>4</v>
@@ -2495,10 +2495,10 @@
         <v>36</v>
       </c>
       <c r="C65" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D65" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2509,7 +2509,7 @@
         <v>38</v>
       </c>
       <c r="C66" s="10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D66" s="10">
         <v>16</v>
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D68" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D69" s="10">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2565,10 @@
         <v>45</v>
       </c>
       <c r="C70" s="10">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D70" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF7E5A-7E76-4B1C-96F8-38ED77F12009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E41D6-6E2A-4C0B-B1DB-8C239E2323D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,19 +1358,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2">
-        <v>2313</v>
+        <v>2328</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2">
-        <v>1271</v>
+        <v>1297</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2">
-        <v>1194</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2">
-        <v>844</v>
+        <v>889</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1450,19 +1450,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
-        <v>872</v>
+        <v>926</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1473,22 +1473,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="D7" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G7" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1496,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="C8" s="1">
-        <v>7334</v>
+        <v>7533</v>
       </c>
       <c r="D8" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F8" s="1">
-        <v>1756</v>
+        <v>1594</v>
       </c>
       <c r="G8" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,10 +1627,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -1669,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D6" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="10">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="10">
         <v>3</v>
@@ -1809,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,10 +1823,10 @@
         <v>38</v>
       </c>
       <c r="C17" s="10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,10 +1851,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="10">
         <v>5</v>
@@ -1882,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1977,10 +1977,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="10">
         <v>2</v>
@@ -2019,10 +2019,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="10">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D31" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" s="10">
         <v>4</v>
@@ -2047,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="C33" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,10 +2061,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="10">
         <v>15</v>
@@ -2103,10 +2103,10 @@
         <v>21</v>
       </c>
       <c r="C37" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D37" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>45</v>
       </c>
       <c r="C38" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="10">
         <v>7</v>
@@ -2145,7 +2145,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="10">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D42" s="10">
         <v>40</v>
@@ -2190,7 +2190,7 @@
         <v>28</v>
       </c>
       <c r="D43" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="C44" s="10">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D44" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2232,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="D46" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="10">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D48" s="10">
         <v>6</v>
@@ -2274,7 +2274,7 @@
         <v>46</v>
       </c>
       <c r="D49" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>79</v>
       </c>
       <c r="C51" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" s="10">
         <v>5</v>
@@ -2355,10 +2355,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="C57" s="10">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D57" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>33</v>
       </c>
       <c r="C59" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D59" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,10 +2425,10 @@
         <v>76</v>
       </c>
       <c r="C60" s="10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>76</v>
       </c>
       <c r="C61" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D61" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2453,10 +2453,10 @@
         <v>38</v>
       </c>
       <c r="C62" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D62" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D63" s="10">
         <v>6</v>
@@ -2484,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="D64" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D68" s="10">
         <v>15</v>
@@ -2551,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="C69" s="10">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D69" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>45</v>
       </c>
       <c r="C70" s="10">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D70" s="10">
         <v>6</v>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E41D6-6E2A-4C0B-B1DB-8C239E2323D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D57388-5854-498E-8560-17393F7C1523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -98,7 +98,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -425,7 +428,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +476,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +503,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -497,11 +518,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -524,9 +546,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1315,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,22 +1385,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>420</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2328</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2">
-        <v>535</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="B2" s="14">
+        <v>425</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2395</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>440</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1380,22 +1408,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>167</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1297</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2">
-        <v>217</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B3" s="14">
+        <v>175</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1341</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>191</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -1403,22 +1431,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1270</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2">
-        <v>273</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="B4" s="14">
+        <v>137</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1268</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>264</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -1426,22 +1454,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>91</v>
-      </c>
-      <c r="C5" s="2">
-        <v>889</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
-        <v>110</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="B5" s="14">
+        <v>97</v>
+      </c>
+      <c r="C5" s="16">
+        <v>955</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>73</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1449,22 +1477,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="14">
         <v>91</v>
       </c>
-      <c r="C6" s="2">
-        <v>926</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>64</v>
-      </c>
-      <c r="F6" s="2">
-        <v>214</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="C6" s="16">
+        <v>972</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>178</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -1472,23 +1500,23 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>160</v>
       </c>
-      <c r="C7" s="2">
-        <v>823</v>
-      </c>
-      <c r="D7" s="3">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="16">
+        <v>867</v>
+      </c>
+      <c r="D7" s="16">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15">
         <v>93</v>
       </c>
-      <c r="F7" s="2">
-        <v>245</v>
-      </c>
-      <c r="G7" s="3">
-        <v>28</v>
+      <c r="F7">
+        <v>201</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,22 +1524,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1061</v>
+        <v>1085</v>
       </c>
       <c r="C8" s="1">
-        <v>7533</v>
+        <v>7798</v>
       </c>
       <c r="D8" s="13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="F8" s="1">
-        <v>1594</v>
+        <v>1347</v>
       </c>
       <c r="G8" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D70"/>
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,968 +1634,968 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>115</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60">
+        <v>34</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62">
+        <v>47</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>48</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>31</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10">
-        <v>124</v>
-      </c>
-      <c r="D6" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>45</v>
+      </c>
+      <c r="D69">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
-        <v>72</v>
-      </c>
-      <c r="D13" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10">
-        <v>80</v>
-      </c>
-      <c r="D16" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="10">
-        <v>26</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
         <v>42</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10">
-        <v>91</v>
-      </c>
-      <c r="D18" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10">
-        <v>31</v>
-      </c>
-      <c r="D19" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="10">
-        <v>44</v>
-      </c>
-      <c r="D20" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="10">
-        <v>24</v>
-      </c>
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="10">
-        <v>34</v>
-      </c>
-      <c r="D22" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="10">
-        <v>12</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="10">
-        <v>15</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="10">
-        <v>9</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="10">
-        <v>39</v>
-      </c>
-      <c r="D29" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10">
-        <v>13</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="10">
-        <v>32</v>
-      </c>
-      <c r="D31" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="10">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="10">
-        <v>48</v>
-      </c>
-      <c r="D33" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="10">
-        <v>14</v>
-      </c>
-      <c r="D34" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="10">
-        <v>64</v>
-      </c>
-      <c r="D35" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="10">
-        <v>39</v>
-      </c>
-      <c r="D37" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="10">
-        <v>52</v>
-      </c>
-      <c r="D38" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="10">
-        <v>14</v>
-      </c>
-      <c r="D39" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="10">
-        <v>2</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="10">
-        <v>119</v>
-      </c>
-      <c r="D42" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="10">
-        <v>28</v>
-      </c>
-      <c r="D43" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="10">
-        <v>23</v>
-      </c>
-      <c r="D44" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="10">
-        <v>29</v>
-      </c>
-      <c r="D46" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="10">
-        <v>5</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="10">
-        <v>43</v>
-      </c>
-      <c r="D48" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="10">
-        <v>46</v>
-      </c>
-      <c r="D49" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="10">
-        <v>36</v>
-      </c>
-      <c r="D50" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="10">
-        <v>2</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="10">
-        <v>5</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="10">
-        <v>38</v>
-      </c>
-      <c r="D54" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="10">
-        <v>56</v>
-      </c>
-      <c r="D55" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="10">
-        <v>48</v>
-      </c>
-      <c r="D57" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="10">
-        <v>10</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="10">
-        <v>53</v>
-      </c>
-      <c r="D59" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="10">
-        <v>35</v>
-      </c>
-      <c r="D60" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="10">
-        <v>38</v>
-      </c>
-      <c r="D61" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="10">
-        <v>35</v>
-      </c>
-      <c r="D62" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="10">
-        <v>43</v>
-      </c>
-      <c r="D63" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="10">
-        <v>29</v>
-      </c>
-      <c r="D64" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="10">
-        <v>8</v>
-      </c>
-      <c r="D65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="10">
-        <v>32</v>
-      </c>
-      <c r="D66" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="10">
-        <v>21</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="10">
-        <v>64</v>
-      </c>
-      <c r="D68" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="10">
-        <v>41</v>
-      </c>
-      <c r="D69" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="10">
-        <v>43</v>
-      </c>
-      <c r="D70" s="10">
+      <c r="D70">
         <v>6</v>
       </c>
     </row>
@@ -2618,12 +2646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -2737,6 +2759,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2747,15 +2775,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2771,6 +2790,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
   <ds:schemaRefs>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D57388-5854-498E-8560-17393F7C1523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C784DA6-0335-4EFF-BD88-E26384CB0840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Bed Avaliability" sheetId="4" r:id="rId1"/>
@@ -98,10 +98,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -428,7 +425,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,21 +473,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,11 +487,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -518,12 +497,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -545,16 +523,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1344,21 +1315,21 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1381,168 +1352,168 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14">
-        <v>425</v>
-      </c>
-      <c r="C2" s="16">
-        <v>2395</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>74</v>
+      <c r="B2">
+        <v>408</v>
+      </c>
+      <c r="C2">
+        <v>2110</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>440</v>
+        <v>696</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14">
-        <v>175</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1341</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>39</v>
+      <c r="B3">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>1154</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
-        <v>137</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1268</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>68</v>
+      <c r="B4">
+        <v>133</v>
+      </c>
+      <c r="C4">
+        <v>1203</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
-        <v>97</v>
-      </c>
-      <c r="C5" s="16">
-        <v>955</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>11</v>
+      <c r="B5">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>805</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
-        <v>91</v>
-      </c>
-      <c r="C6" s="16">
-        <v>972</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>62</v>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>901</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14">
-        <v>160</v>
-      </c>
-      <c r="C7" s="16">
-        <v>867</v>
-      </c>
-      <c r="D7" s="16">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15">
-        <v>93</v>
+      <c r="B7">
+        <v>157</v>
+      </c>
+      <c r="C7">
+        <v>810</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>96</v>
       </c>
       <c r="F7">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="G7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1085</v>
+        <v>1054</v>
       </c>
       <c r="C8" s="1">
-        <v>7798</v>
-      </c>
-      <c r="D8" s="13">
-        <v>25</v>
+        <v>6983</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32</v>
       </c>
       <c r="E8" s="1">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="F8" s="1">
-        <v>1347</v>
-      </c>
-      <c r="G8" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1984</v>
+      </c>
+      <c r="G8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1553,49 +1524,31 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -1608,18 +1561,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="4" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="4" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -1633,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1655,13 +1608,13 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1683,13 +1636,13 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1697,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1711,13 +1664,13 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1725,13 +1678,13 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1739,13 +1692,13 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1753,13 +1706,13 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1767,13 +1720,13 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1781,13 +1734,13 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1798,10 +1751,10 @@
         <v>83</v>
       </c>
       <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1809,13 +1762,13 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -1823,13 +1776,13 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1837,13 +1790,13 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1851,13 +1804,13 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1865,13 +1818,13 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1879,13 +1832,13 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1893,13 +1846,13 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1907,13 +1860,13 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1921,13 +1874,13 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1935,13 +1888,13 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1949,13 +1902,13 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -1969,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1977,13 +1930,13 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1997,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2005,13 +1958,13 @@
         <v>47</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2019,13 +1972,13 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2033,13 +1986,13 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2047,13 +2000,13 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2061,13 +2014,13 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2075,13 +2028,13 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2089,13 +2042,13 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2103,13 +2056,13 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2131,13 +2084,13 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -2145,13 +2098,13 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2159,13 +2112,13 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -2179,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -2193,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -2204,10 +2157,10 @@
         <v>115</v>
       </c>
       <c r="D42">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2215,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -2229,13 +2182,13 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -2243,13 +2196,13 @@
         <v>21</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -2260,10 +2213,10 @@
         <v>28</v>
       </c>
       <c r="D46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -2277,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -2285,13 +2238,13 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -2299,13 +2252,13 @@
         <v>76</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2313,13 +2266,13 @@
         <v>45</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2327,13 +2280,13 @@
         <v>79</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -2341,13 +2294,13 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2361,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -2369,13 +2322,13 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -2383,13 +2336,13 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2403,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -2411,13 +2364,13 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -2425,13 +2378,13 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -2439,13 +2392,13 @@
         <v>33</v>
       </c>
       <c r="C59">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -2453,13 +2406,13 @@
         <v>76</v>
       </c>
       <c r="C60">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -2467,13 +2420,13 @@
         <v>76</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2481,13 +2434,13 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -2495,13 +2448,13 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -2509,13 +2462,13 @@
         <v>76</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -2523,13 +2476,13 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2537,13 +2490,13 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -2551,13 +2504,13 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -2565,13 +2518,13 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D68">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -2579,13 +2532,13 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -2596,16 +2549,16 @@
         <v>42</v>
       </c>
       <c r="D70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +2566,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>19</v>
       </c>
@@ -2621,19 +2574,19 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>

--- a/data/HospCensusBedAvailable.xlsx
+++ b/data/HospCensusBedAvailable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C784DA6-0335-4EFF-BD88-E26384CB0840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AB68CE-E48E-46A0-93E6-B3FA4BCB0649}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -501,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -523,6 +529,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1315,7 +1326,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,20 +1367,20 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>408</v>
-      </c>
-      <c r="C2">
-        <v>2110</v>
+      <c r="B2" s="13">
+        <v>440</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2362</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>696</v>
+        <v>514</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1379,20 +1390,20 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>170</v>
-      </c>
-      <c r="C3">
-        <v>1154</v>
+      <c r="B3" s="13">
+        <v>168</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1272</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1402,20 +1413,20 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>133</v>
-      </c>
-      <c r="C4">
-        <v>1203</v>
+      <c r="B4" s="13">
+        <v>135</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1321</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1425,20 +1436,20 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>93</v>
-      </c>
-      <c r="C5">
-        <v>805</v>
+      <c r="B5" s="13">
+        <v>100</v>
+      </c>
+      <c r="C5" s="14">
+        <v>872</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1448,20 +1459,20 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>93</v>
       </c>
-      <c r="C6">
-        <v>901</v>
+      <c r="C6" s="14">
+        <v>941</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1471,23 +1482,23 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>157</v>
-      </c>
-      <c r="C7">
-        <v>810</v>
+      <c r="B7" s="13">
+        <v>167</v>
+      </c>
+      <c r="C7" s="14">
+        <v>875</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,23 +1506,30 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>1054</v>
+        <f>SUM(B2:B7)</f>
+        <v>1103</v>
       </c>
       <c r="C8" s="1">
-        <v>6983</v>
+        <f t="shared" ref="C8:H8" si="0">SUM(C2:C7)</f>
+        <v>7643</v>
       </c>
       <c r="D8" s="1">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
-        <v>393</v>
+        <f t="shared" si="0"/>
+        <v>375</v>
       </c>
       <c r="F8" s="1">
-        <v>1984</v>
+        <f t="shared" si="0"/>
+        <v>1614</v>
       </c>
       <c r="G8" s="1">
-        <v>18</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1525,11 +1543,15 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1561,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A791FDD-5468-46F2-B927-2DF58BE74B38}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,10 +1630,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,10 +1672,10 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,7 +1686,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1678,7 +1700,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1692,7 +1714,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1706,10 +1728,10 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1720,10 +1742,10 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1734,7 +1756,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1748,10 +1770,10 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,10 +1784,10 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,10 +1798,10 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1790,10 +1812,10 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,10 +1826,10 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,10 +1840,10 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,7 +1854,7 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1846,10 +1868,10 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,10 +1882,10 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -1902,10 +1924,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1930,10 +1952,10 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1944,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1958,7 +1980,7 @@
         <v>47</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1975,7 +1997,7 @@
         <v>52</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,10 +2008,10 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2000,10 +2022,10 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2014,10 +2036,10 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,10 +2050,10 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,10 +2064,10 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,10 +2078,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,7 +2106,7 @@
         <v>21</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -2098,10 +2120,10 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,10 +2134,10 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,10 +2176,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,10 +2204,10 @@
         <v>28</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2210,10 +2232,10 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2224,7 +2246,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2238,10 +2260,10 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,10 +2274,10 @@
         <v>76</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,10 +2344,10 @@
         <v>45</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,10 +2358,10 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,10 +2386,10 @@
         <v>24</v>
       </c>
       <c r="C57">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,7 +2400,7 @@
         <v>45</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2392,10 +2414,10 @@
         <v>33</v>
       </c>
       <c r="C59">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,10 +2428,10 @@
         <v>76</v>
       </c>
       <c r="C60">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2420,10 +2442,10 @@
         <v>76</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,10 +2456,10 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,10 +2470,10 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2462,10 +2484,10 @@
         <v>76</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2476,7 +2498,7 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2490,10 +2512,10 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2526,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2518,10 +2540,10 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,7 +2554,7 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D69">
         <v>28</v>
@@ -2546,7 +2568,7 @@
         <v>45</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -2599,6 +2621,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -2712,22 +2749,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D58A1D-6DC5-4283-8EE6-F610D3365A8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2741,21 +2780,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1505F91-EE46-4907-AD7C-20A0F83D7A13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AC013C-47FA-4FE6-B774-AA2E56E47A80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>